--- a/DATA/M013/T1_RADIOMICS_OUTPUT/M013_radiomics.xlsx
+++ b/DATA/M013/T1_RADIOMICS_OUTPUT/M013_radiomics.xlsx
@@ -13,7 +13,190 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>00331813</t>
+  </si>
+  <si>
+    <t>Family_Name</t>
+  </si>
+  <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ACQ_DATE</t>
+  </si>
+  <si>
+    <t>20200619</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>District1</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Solidity</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>SumAverage</t>
+  </si>
+  <si>
+    <t>Variance1</t>
+  </si>
+  <si>
+    <t>Dissimilarity</t>
+  </si>
+  <si>
+    <t>AutoCorrelation</t>
+  </si>
+  <si>
+    <t>Coarseness</t>
+  </si>
+  <si>
+    <t>Contrast1</t>
+  </si>
+  <si>
+    <t>Busyness</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>LRE</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>LGRE</t>
+  </si>
+  <si>
+    <t>HGRE</t>
+  </si>
+  <si>
+    <t>SRLGE</t>
+  </si>
+  <si>
+    <t>SRHGE</t>
+  </si>
+  <si>
+    <t>LRLGE</t>
+  </si>
+  <si>
+    <t>LRHGE</t>
+  </si>
+  <si>
+    <t>GLV</t>
+  </si>
+  <si>
+    <t>RLV</t>
+  </si>
+  <si>
+    <t>SZE</t>
+  </si>
+  <si>
+    <t>LZE</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>ZSN</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>LGZE</t>
+  </si>
+  <si>
+    <t>HGZE</t>
+  </si>
+  <si>
+    <t>SZLG</t>
+  </si>
+  <si>
+    <t>SZHGE</t>
+  </si>
+  <si>
+    <t>LZLGE</t>
+  </si>
+  <si>
+    <t>LZHGE</t>
+  </si>
+  <si>
+    <t>GLV1</t>
+  </si>
+  <si>
+    <t>ZSV</t>
+  </si>
   <si>
     <t>Patient_ID</t>
   </si>
@@ -399,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -409,14 +592,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,189 +672,189 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="H2" s="0">
         <v>65.852844089808073</v>
@@ -681,136 +866,136 @@
         <v>3.2082130481171136</v>
       </c>
       <c r="K2" s="0">
-        <v>0.60459186836371981</v>
+        <v>0.60459186836377932</v>
       </c>
       <c r="L2" s="0">
         <v>56.435804238089851</v>
       </c>
       <c r="M2" s="0">
-        <v>0.88623629890252176</v>
+        <v>0.88623629890251221</v>
       </c>
       <c r="N2" s="0">
         <v>42233</v>
       </c>
       <c r="O2" s="0">
-        <v>5.2059459295581904e-05</v>
+        <v>0.00042768091514865038</v>
       </c>
       <c r="P2" s="0">
-        <v>2183.8637284906686</v>
+        <v>218.29863997495968</v>
       </c>
       <c r="Q2" s="0">
-        <v>14.894728666966593</v>
+        <v>11.730759074140661</v>
       </c>
       <c r="R2" s="0">
-        <v>0.083642873425375824</v>
+        <v>0.18266217861447268</v>
       </c>
       <c r="S2" s="0">
-        <v>0.64485753813484903</v>
+        <v>0.6395127083510973</v>
       </c>
       <c r="T2" s="0">
-        <v>0.00025739039081976227</v>
+        <v>0.0006356857814803895</v>
       </c>
       <c r="U2" s="0">
-        <v>0.0017544385006057692</v>
+        <v>0.0046551591305755338</v>
       </c>
       <c r="V2" s="0">
-        <v>33.263414751360315</v>
+        <v>10.874411901789523</v>
       </c>
       <c r="W2" s="0">
-        <v>206806.43811981651</v>
+        <v>1902.173312359984</v>
       </c>
       <c r="X2" s="0">
-        <v>0.00024350356376494977</v>
+        <v>0.00023773443861522901</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.45274220307738605</v>
+        <v>0.59477883102754692</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.011434625915522519</v>
+        <v>1.5187467909051835</v>
       </c>
       <c r="AA2" s="0">
-        <v>3099178.2294848259</v>
+        <v>18865.624796921511</v>
       </c>
       <c r="AB2" s="0">
-        <v>41.175703338238812</v>
+        <v>0.55757708307883747</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.99194155501312364</v>
+        <v>0.97402629503249349</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.0328807724959421</v>
+        <v>1.1132563672316449</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.0057136984195008209</v>
+        <v>0.016597390152423088</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.97879065786685471</v>
+        <v>0.93362721847064445</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.98925409469400771</v>
+        <v>0.96503658621998134</v>
       </c>
       <c r="AH2" s="0">
-        <v>5.2977807310094326e-06</v>
+        <v>0.0064094772022125568</v>
       </c>
       <c r="AI2" s="0">
-        <v>206732.76258141632</v>
+        <v>1993.350283531724</v>
       </c>
       <c r="AJ2" s="0">
-        <v>5.2560591509529381e-06</v>
+        <v>0.0058967952618072372</v>
       </c>
       <c r="AK2" s="0">
-        <v>205114.07155388387</v>
+        <v>1941.4358767275767</v>
       </c>
       <c r="AL2" s="0">
-        <v>5.4681305169679058e-06</v>
+        <v>0.0094742000446225924</v>
       </c>
       <c r="AM2" s="0">
-        <v>213330.45442506165</v>
+        <v>2226.742704720014</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.20358878808358005</v>
+        <v>0.012560704338504342</v>
       </c>
       <c r="AO2" s="0">
-        <v>1.0160867395366055e-06</v>
+        <v>7.3608860875791276e-06</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.90411944875992345</v>
+        <v>0.76834424205309049</v>
       </c>
       <c r="AQ2" s="0">
-        <v>1.5588798861272313</v>
+        <v>5.1400460777278392</v>
       </c>
       <c r="AR2" s="0">
-        <v>0.005546781039285748</v>
+        <v>0.016044629285140184</v>
       </c>
       <c r="AS2" s="0">
-        <v>0.77942540073730038</v>
+        <v>0.5473611030695883</v>
       </c>
       <c r="AT2" s="0">
-        <v>0.865010773565695</v>
+        <v>0.62692681078777257</v>
       </c>
       <c r="AU2" s="0">
-        <v>5.3149620366239447e-06</v>
+        <v>0.0034550727779965591</v>
       </c>
       <c r="AV2" s="0">
-        <v>207543.12463046098</v>
+        <v>2038.3389734486536</v>
       </c>
       <c r="AW2" s="0">
-        <v>4.8205361739263683e-06</v>
+        <v>0.0024279394443928594</v>
       </c>
       <c r="AX2" s="0">
-        <v>188133.84660740432</v>
+        <v>1584.719424526837</v>
       </c>
       <c r="AY2" s="0">
-        <v>8.2185897868177472e-06</v>
+        <v>0.1747994814262562</v>
       </c>
       <c r="AZ2" s="0">
-        <v>319301.77605934528</v>
+        <v>11074.678815575784</v>
       </c>
       <c r="BA2" s="0">
-        <v>0.078615044129405898</v>
+        <v>0.00089774126836235661</v>
       </c>
       <c r="BB2" s="0">
-        <v>4.0786630313114102e-07</v>
+        <v>6.1190775172951716e-07</v>
       </c>
     </row>
   </sheetData>
